--- a/decision-tables/RecordLayout_BES.xlsx
+++ b/decision-tables/RecordLayout_BES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="13380" windowHeight="4008" activeTab="3"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="13380" windowHeight="4008" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="894">
   <si>
     <t>label</t>
   </si>
@@ -3624,9 +3624,9 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table2623" displayName="Table2623" ref="A6:AV7" totalsRowShown="0">
-  <autoFilter ref="A6:AV7"/>
-  <tableColumns count="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table2623" displayName="Table2623" ref="A6:AR7" totalsRowShown="0">
+  <autoFilter ref="A6:AR7"/>
+  <tableColumns count="44">
     <tableColumn id="1" name="bus_num"/>
     <tableColumn id="8" name="result_code"/>
     <tableColumn id="12" name="cluster"/>
@@ -3670,10 +3670,6 @@
     <tableColumn id="53" name="revenue"/>
     <tableColumn id="54" name="financial_date" dataDxfId="1"/>
     <tableColumn id="55" name="financial_date_end" dataDxfId="0"/>
-    <tableColumn id="56" name="contact_name"/>
-    <tableColumn id="57" name="contact_phone"/>
-    <tableColumn id="58" name="contact_address"/>
-    <tableColumn id="59" name="contact_email"/>
     <tableColumn id="60" name="listed_financials"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15761,8 +15757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR94"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20369,8 +20365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20406,8 +20402,8 @@
     <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" customWidth="1"/>
+    <col min="44" max="44" width="21.109375" customWidth="1"/>
     <col min="45" max="45" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -20580,18 +20576,6 @@
         <v>797</v>
       </c>
       <c r="AR6" t="s">
-        <v>798</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>799</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>800</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>801</v>
-      </c>
-      <c r="AV6" t="s">
         <v>802</v>
       </c>
     </row>
@@ -20665,19 +20649,7 @@
       <c r="AQ7" s="1">
         <v>42004</v>
       </c>
-      <c r="AR7" t="s">
-        <v>698</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>699</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>700</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>701</v>
-      </c>
-      <c r="AV7">
+      <c r="AR7">
         <v>1</v>
       </c>
     </row>
